--- a/Exc4/Шаблон_проектная работа_7 спринт.xlsx
+++ b/Exc4/Шаблон_проектная работа_7 спринт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\RiderProjects\architecture-sprint-7\Exc4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F800DCC5-2159-49A2-A158-F5B986183A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74411176-D183-485B-90CE-858C2A825F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5160" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12270" yWindow="4485" windowWidth="18510" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Роль </t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>Управление ресурсами в namespace: создание/удаление pods, deployments, configmaps (без доступа к секретам).</t>
+  </si>
+  <si>
+    <t>secret-reader</t>
+  </si>
+  <si>
+    <t>Чтение и просмотр секретов</t>
+  </si>
+  <si>
+    <t>Разработчики, DevOps-инженеры</t>
   </si>
 </sst>
 </file>
@@ -411,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:G8"/>
+  <dimension ref="C4:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75"/>
@@ -483,6 +492,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" spans="3:7">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
